--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Muzammil\OneDrive\Desktop\Projects\Testing Projects\PathologyLab\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC9142E5-DB25-4CEF-B269-DAC97F6CF87D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A400FB7-EE3A-4123-A137-D6050CE49987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1770" yWindow="1665" windowWidth="16200" windowHeight="9307" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Login" sheetId="1" r:id="rId1"/>
+    <sheet name="tc calculator" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,46 +25,64 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>TC NAME</t>
-  </si>
-  <si>
-    <t>USERNAME</t>
-  </si>
-  <si>
-    <t>PASSWORD</t>
-  </si>
-  <si>
-    <t>ERROR MSG</t>
-  </si>
-  <si>
-    <t>TC_LOGIN_01</t>
-  </si>
-  <si>
-    <t>TC_LOGIN_02</t>
-  </si>
-  <si>
-    <t>test@kennect.io</t>
-  </si>
-  <si>
-    <t>abc@gmal</t>
-  </si>
-  <si>
-    <t>hello</t>
-  </si>
-  <si>
-    <t>Qwerty@1234</t>
-  </si>
-  <si>
-    <t>There is no user record corresponding to this identifier. The user may have been deleted.</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+  <si>
+    <t>TC_NAME</t>
+  </si>
+  <si>
+    <t>tests names</t>
+  </si>
+  <si>
+    <t>discount</t>
+  </si>
+  <si>
+    <t>expected subtotal</t>
+  </si>
+  <si>
+    <t>expected total</t>
+  </si>
+  <si>
+    <t>TC_CALCUALTOR_01_DATA01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AFP </t>
+  </si>
+  <si>
+    <t>TC_CALCUALTOR_01_DATA02</t>
+  </si>
+  <si>
+    <t>AFP,VITAMIN B12</t>
+  </si>
+  <si>
+    <t>TC_CALCULATOR_02_DATA01</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>10%</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>1250</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>332.5</t>
+  </si>
+  <si>
+    <t>1125</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,33 +90,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="5"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -110,18 +108,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -400,65 +395,83 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.46484375" customWidth="1"/>
-    <col min="2" max="2" width="18.1328125" customWidth="1"/>
-    <col min="3" max="3" width="20.265625" customWidth="1"/>
+    <col min="1" max="1" width="29.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{C46DF778-0618-4D0B-A0CF-B3EE0C29ABF9}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{89201EBA-EA01-4307-AAE3-21C28C4426F2}"/>
-    <hyperlink ref="C2" r:id="rId3" xr:uid="{13D3B81D-EE4E-4459-ACA9-004A561595A2}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Muzammil\OneDrive\Desktop\Projects\Testing Projects\PathologyLab\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A400FB7-EE3A-4123-A137-D6050CE49987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED99DC1-1FAE-4B64-B138-BFE0096F937C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1770" yWindow="1665" windowWidth="16200" windowHeight="9307" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,15 +42,9 @@
     <t>expected total</t>
   </si>
   <si>
-    <t>TC_CALCUALTOR_01_DATA01</t>
-  </si>
-  <si>
     <t xml:space="preserve">AFP </t>
   </si>
   <si>
-    <t>TC_CALCUALTOR_01_DATA02</t>
-  </si>
-  <si>
     <t>AFP,VITAMIN B12</t>
   </si>
   <si>
@@ -76,16 +70,28 @@
   </si>
   <si>
     <t>1125</t>
+  </si>
+  <si>
+    <t>TC_CALCULATOR_01_DATA01</t>
+  </si>
+  <si>
+    <t>TC_CALCULATOR_01_DATA02</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -398,7 +404,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -425,53 +431,54 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
       <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>